--- a/Quantile Output.xlsx
+++ b/Quantile Output.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DerekS\My Projects\Python\Meeder1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.172.247\meeder\users\DerekS\My Projects\Python\Meeder1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49079C56-C2F7-403E-9F26-E6B6F1B3700C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44E2A59-DED9-4B78-BB30-9254981900D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1650" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Factors</t>
   </si>
@@ -49,7 +49,7 @@
     <t>R-Squared and Decile Summary for Factors against Y</t>
   </si>
   <si>
-    <t>2021-12-16 to 2024-12-04</t>
+    <t>2021-12-16 to 2024-12-16</t>
   </si>
   <si>
     <t>X</t>
@@ -62,6 +62,21 @@
   </si>
   <si>
     <t>Deciles</t>
+  </si>
+  <si>
+    <t>Very Short</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>Very Long</t>
   </si>
 </sst>
 </file>
@@ -134,12 +149,26 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>X Decile Analysis</a:t>
+              <a:t>Average 1 week forward</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Price Return of US 10YR</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Residual Decile Analysis</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="1"/>
+      <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -147,11 +176,74 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
+          <c:invertIfNegative val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-1C00-4191-829D-5B132BAFBE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1C00-4191-829D-5B132BAFBE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1C00-4191-829D-5B132BAFBE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-1C00-4191-829D-5B132BAFBE62}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -160,7 +252,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -174,6 +265,29 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>X!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Very Short</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Short</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Neutral</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Long</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Very Long</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>X!$B$4:$B$8</c:f>
@@ -181,33 +295,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-7.1000000000000004E-3</c:v>
+                  <c:v>-5.8999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.1000000000000001E-3</c:v>
+                  <c:v>-2.8E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.8E-3</c:v>
+                  <c:v>-3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9999999999999999E-4</c:v>
+                  <c:v>5.0000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3999999999999998E-3</c:v>
+                  <c:v>1.1000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-25DB-465E-B5EA-3599A9D095E5}"/>
+              <c16:uniqueId val="{00000000-1C00-4191-829D-5B132BAFBE62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -242,6 +355,7 @@
           </c:tx>
           <c:overlay val="1"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -363,23 +477,23 @@
                   <c:v>-2.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.8E-3</c:v>
+                  <c:v>-5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6999999999999999E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-2.7000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.2999999999999999E-3</c:v>
+                  <c:v>-1.9E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5F9C-4418-BD06-82BA8FCECC42}"/>
+              <c16:uniqueId val="{00000000-C895-44AE-8589-AD2F8E1FC648}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -483,12 +597,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6972300" cy="3619500"/>
+    <xdr:ext cx="6000750" cy="3490575"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -898,10 +1012,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>5.5599999999999997E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -912,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -926,10 +1040,10 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>-7.0645161290322604E-3</v>
+        <v>-5.8750000000000017E-3</v>
       </c>
       <c r="G5">
-        <v>-2.5937500000000071E-3</v>
+        <v>-2.5625000000000079E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -937,10 +1051,10 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>-1.096774193548387E-3</v>
+        <v>-2.8064516129032279E-3</v>
       </c>
       <c r="G6">
-        <v>-3.8064516129032279E-3</v>
+        <v>-5.0000000000000036E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -948,10 +1062,10 @@
         <v>3</v>
       </c>
       <c r="F7">
-        <v>-3.838709677419355E-3</v>
+        <v>-3.0322580645161302E-3</v>
       </c>
       <c r="G7">
-        <v>1.66666666666668E-3</v>
+        <v>2.0000000000000131E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -959,7 +1073,7 @@
         <v>4</v>
       </c>
       <c r="F8">
-        <v>7.4193548387096997E-4</v>
+        <v>4.8387096774193809E-4</v>
       </c>
       <c r="G8">
         <v>-2.677419354838713E-3</v>
@@ -970,10 +1084,10 @@
         <v>5</v>
       </c>
       <c r="F9">
-        <v>2.38709677419355E-3</v>
+        <v>1.0937500000000001E-3</v>
       </c>
       <c r="G9">
-        <v>-1.3225806451612899E-3</v>
+        <v>-1.90625E-3</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +1100,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,10 +1118,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D2">
-        <v>5.5599999999999997E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="E2">
-        <v>3.0999999999999999E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1016,58 +1130,58 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-7.1000000000000004E-3</v>
+        <v>-5.8999999999999999E-3</v>
       </c>
       <c r="C4">
-        <v>-3.7002999999999999</v>
+        <v>-2.6474000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>-1.1000000000000001E-3</v>
+        <v>-2.8E-3</v>
       </c>
       <c r="C5">
-        <v>-0.36649999999999999</v>
+        <v>-0.98509999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-3.8E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="C6">
-        <v>-1.4418</v>
+        <v>-1.1736</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
+      <c r="A7" t="s">
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>6.9999999999999999E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C7">
-        <v>0.3014</v>
+        <v>0.19739999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
+      <c r="A8" t="s">
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>2.3999999999999998E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="C8">
-        <v>0.82079999999999997</v>
+        <v>0.35949999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.97899999999999998</v>
+        <v>0.93869999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1116,7 +1230,7 @@
         <v>-2.5999999999999999E-3</v>
       </c>
       <c r="C4">
-        <v>-0.86409999999999998</v>
+        <v>-0.85870000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1124,10 +1238,10 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>-3.8E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="C5">
-        <v>-1.3349</v>
+        <v>-1.7468999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1135,10 +1249,10 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>1.6999999999999999E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="C6">
-        <v>0.72599999999999998</v>
+        <v>0.88219999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1149,7 +1263,7 @@
         <v>-2.7000000000000001E-3</v>
       </c>
       <c r="C7">
-        <v>-0.96489999999999998</v>
+        <v>-0.97109999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1157,10 +1271,10 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>-1.2999999999999999E-3</v>
+        <v>-1.9E-3</v>
       </c>
       <c r="C8">
-        <v>-0.58879999999999999</v>
+        <v>-0.8387</v>
       </c>
     </row>
   </sheetData>

--- a/Quantile Output.xlsx
+++ b/Quantile Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.172.247\meeder\users\DerekS\My Projects\Python\Meeder1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44E2A59-DED9-4B78-BB30-9254981900D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8398A6CF-B7DF-4FA7-BD7D-B4839BC9A2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
